--- a/nofault/nofault_data/data_nofault_c.xlsx
+++ b/nofault/nofault_data/data_nofault_c.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fguo/Documents/GitHub/SimpleStorageSystem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fguo/Documents/GitHub/SimpleStorageSystem/nofault/nofault_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FE0CCA-4842-814F-9323-BCC8A0B94B86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59858749-16AC-0D43-AC9A-0D9713475447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18840" yWindow="800" windowWidth="25300" windowHeight="16940" xr2:uid="{FF9DA0C3-0362-C245-88DA-EF0B1A93AFDD}"/>
+    <workbookView xWindow="18580" yWindow="1120" windowWidth="25300" windowHeight="16940" xr2:uid="{FF9DA0C3-0362-C245-88DA-EF0B1A93AFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -460,22 +460,22 @@
         <v>100</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>503</v>
+        <v>682</v>
       </c>
       <c r="F2">
-        <v>107280</v>
+        <v>193738</v>
       </c>
       <c r="G2">
-        <v>26714323</v>
+        <v>83950354</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -483,22 +483,22 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>489</v>
+        <v>723</v>
       </c>
       <c r="F3">
-        <v>105003</v>
+        <v>244898</v>
       </c>
       <c r="G3">
-        <v>16508822</v>
+        <v>49413605</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -506,22 +506,22 @@
         <v>100</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>482</v>
+        <v>647</v>
       </c>
       <c r="F4">
-        <v>85740</v>
+        <v>158867</v>
       </c>
       <c r="G4">
-        <v>13977858</v>
+        <v>41520811</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -529,22 +529,22 @@
         <v>100</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>485</v>
+        <v>708</v>
       </c>
       <c r="F5">
-        <v>93728</v>
+        <v>287909</v>
       </c>
       <c r="G5">
-        <v>10093811</v>
+        <v>27238848</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -552,22 +552,22 @@
         <v>100</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6">
-        <v>505</v>
+        <v>686</v>
       </c>
       <c r="F6">
-        <v>126013</v>
+        <v>240553</v>
       </c>
       <c r="G6">
-        <v>11120685</v>
+        <v>17639935</v>
       </c>
     </row>
   </sheetData>

--- a/nofault/nofault_data/data_nofault_c.xlsx
+++ b/nofault/nofault_data/data_nofault_c.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fguo/Documents/GitHub/SimpleStorageSystem/nofault/nofault_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59858749-16AC-0D43-AC9A-0D9713475447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F06445F-D4ED-1F49-A9C1-A776A0C848EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18580" yWindow="1120" windowWidth="25300" windowHeight="16940" xr2:uid="{FF9DA0C3-0362-C245-88DA-EF0B1A93AFDD}"/>
+    <workbookView xWindow="19620" yWindow="1120" windowWidth="13980" windowHeight="16940" xr2:uid="{FF9DA0C3-0362-C245-88DA-EF0B1A93AFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>682</v>
+        <v>1559</v>
       </c>
       <c r="F2">
-        <v>193738</v>
+        <v>37364696</v>
       </c>
       <c r="G2">
-        <v>83950354</v>
+        <v>95915927</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -492,13 +492,13 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>723</v>
+        <v>1599</v>
       </c>
       <c r="F3">
-        <v>244898</v>
+        <v>38755392</v>
       </c>
       <c r="G3">
-        <v>49413605</v>
+        <v>47251260</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -515,13 +515,13 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>647</v>
+        <v>1532</v>
       </c>
       <c r="F4">
-        <v>158867</v>
+        <v>38637944</v>
       </c>
       <c r="G4">
-        <v>41520811</v>
+        <v>33316157</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -538,13 +538,13 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>708</v>
+        <v>1578</v>
       </c>
       <c r="F5">
-        <v>287909</v>
+        <v>39457520</v>
       </c>
       <c r="G5">
-        <v>27238848</v>
+        <v>33780466</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -561,13 +561,13 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>686</v>
+        <v>1626</v>
       </c>
       <c r="F6">
-        <v>240553</v>
+        <v>39015272</v>
       </c>
       <c r="G6">
-        <v>17639935</v>
+        <v>24163686</v>
       </c>
     </row>
   </sheetData>
